--- a/Data/CPU/CPU optimisations data.xlsx
+++ b/Data/CPU/CPU optimisations data.xlsx
@@ -2073,7 +2073,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:O4"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
